--- a/2024FD.xlsx
+++ b/2024FD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexrowe/Desktop/Cardinal/Congress Trading Bot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexrowe/Desktop/Cardinal/congress-tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FD69407-BFB4-6944-85FE-18D819E2383E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DCAC08F7-6115-DB44-8983-C8D0831343EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="760" windowWidth="21680" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7580" yWindow="-20160" windowWidth="21680" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024FD" sheetId="1" r:id="rId1"/>
@@ -1272,8 +1272,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
